--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value112.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value112.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.073608673370928</v>
+        <v>2.287853240966797</v>
       </c>
       <c r="B1">
-        <v>1.918261253701094</v>
+        <v>2.995970964431763</v>
       </c>
       <c r="C1">
-        <v>4.667485434498603</v>
+        <v>1.461484789848328</v>
       </c>
       <c r="D1">
-        <v>2.20750190586688</v>
+        <v>1.197767972946167</v>
       </c>
       <c r="E1">
-        <v>0.9269880054399041</v>
+        <v>1.260863423347473</v>
       </c>
     </row>
   </sheetData>
